--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC190.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC190.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="157">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -528,9 +528,6 @@
     <t>IMG01</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC190, pág. 3)</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -543,13 +540,10 @@
     <t>Diferencia de conjuntos D - Q, representada mediante Diagramas de Venn.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC190, pág. 4)</t>
-  </si>
-  <si>
     <t>Diferencia de conjuntos Q - D, representada mediante Diagramas de Venn.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC190, pág. 5)</t>
+    <t>(Ver la imagen en observaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1548,6 +1542,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1681,6 +1678,199 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>531811</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2992437</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1698625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16890999" y="1968500"/>
+          <a:ext cx="2460626" cy="1682750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1674815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2889248</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1706565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16883061" y="3627440"/>
+          <a:ext cx="2365375" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3111499</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1539875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16692562" y="5453064"/>
+          <a:ext cx="2778125" cy="1484311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55567</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3714753</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16414755" y="7064378"/>
+          <a:ext cx="3659186" cy="1841499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2396,8 +2586,8 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2602,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="50.625" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2591,19 +2781,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" ref="C10:C14" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>146</v>
@@ -2624,25 +2814,25 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>153</v>
+      <c r="J10" s="108" t="s">
+        <v>152</v>
       </c>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f t="shared" ref="A11:A22" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>146</v>
@@ -2664,11 +2854,11 @@
         <v/>
       </c>
       <c r="J11" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -2681,7 +2871,7 @@
         <v>Recurso F13</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>146</v>
@@ -2702,25 +2892,25 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>155</v>
+      <c r="J12" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>146</v>
@@ -2741,8 +2931,8 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>157</v>
+      <c r="J13" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="K13" s="21"/>
     </row>
@@ -5000,6 +5190,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
